--- a/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter03/Search_03_05.xlsx
+++ b/17. LinkedIn Learning/01. Microsoft Excel/01. Master Microsoft Excel - Learning Path/06. Excel - PivotTables in depth/Material/Ex_Files_Excel_Pivot_Tables_Depth/Exercise Files/Chapter03/Search_03_05.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curtis\Documents\LinkedIn Learning\Excel for O365 PivotTables\Chapter03\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier García\Downloads\Excel\Learning path 01\06\Modulo 02\Ex_Files_Excel_Pivot_Tables_Depth\Ex_Files_Excel_Pivot_Tables_Depth\Exercise Files\Chapter03\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2567E354-4DB6-46AF-B3DB-0FC9DEEBD8C9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700678AE-C214-408C-8FC4-7C0727F502DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2E5CF44E-A048-4B93-98D9-BFC521C6FDBF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="250">
   <si>
     <t>OrderNum</t>
   </si>
@@ -785,13 +785,13 @@
     <t>Category</t>
   </si>
   <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
     <t>Sum of Total Price</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total general</t>
   </si>
 </sst>
 </file>
@@ -855,10 +855,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -4830,7 +4830,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6223BFF3-72F3-498B-873F-ADFE229340AC}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B56" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A3:B9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -4868,58 +4868,58 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="53">
-        <item x="38"/>
-        <item x="6"/>
-        <item x="3"/>
-        <item x="30"/>
-        <item x="26"/>
-        <item x="51"/>
-        <item x="41"/>
-        <item x="18"/>
-        <item x="44"/>
-        <item x="34"/>
-        <item x="49"/>
-        <item x="43"/>
-        <item x="36"/>
-        <item x="10"/>
-        <item x="39"/>
-        <item x="35"/>
-        <item x="29"/>
-        <item x="0"/>
-        <item x="45"/>
-        <item x="40"/>
-        <item x="11"/>
-        <item x="13"/>
-        <item x="17"/>
-        <item x="31"/>
-        <item x="37"/>
-        <item x="48"/>
-        <item x="46"/>
-        <item x="33"/>
-        <item x="8"/>
-        <item x="12"/>
+        <item h="1" x="38"/>
+        <item h="1" x="6"/>
+        <item h="1" x="3"/>
+        <item h="1" x="30"/>
+        <item h="1" x="26"/>
+        <item h="1" x="51"/>
+        <item h="1" x="41"/>
+        <item h="1" x="18"/>
+        <item h="1" x="44"/>
+        <item h="1" x="34"/>
+        <item h="1" x="49"/>
+        <item h="1" x="43"/>
+        <item h="1" x="36"/>
+        <item h="1" x="10"/>
+        <item h="1" x="39"/>
+        <item h="1" x="35"/>
+        <item h="1" x="29"/>
+        <item h="1" x="0"/>
+        <item h="1" x="45"/>
+        <item h="1" x="40"/>
+        <item h="1" x="11"/>
+        <item h="1" x="13"/>
+        <item h="1" x="17"/>
+        <item h="1" x="31"/>
+        <item h="1" x="37"/>
+        <item h="1" x="48"/>
+        <item h="1" x="46"/>
+        <item h="1" x="33"/>
+        <item h="1" x="8"/>
+        <item h="1" x="12"/>
         <item x="47"/>
-        <item x="50"/>
-        <item x="15"/>
+        <item h="1" x="50"/>
+        <item h="1" x="15"/>
         <item x="16"/>
-        <item x="9"/>
-        <item x="22"/>
+        <item h="1" x="9"/>
+        <item h="1" x="22"/>
         <item x="25"/>
-        <item x="7"/>
-        <item x="19"/>
+        <item h="1" x="7"/>
+        <item h="1" x="19"/>
         <item x="14"/>
-        <item x="5"/>
-        <item x="21"/>
-        <item x="23"/>
-        <item x="28"/>
+        <item h="1" x="5"/>
+        <item h="1" x="21"/>
+        <item h="1" x="23"/>
+        <item h="1" x="28"/>
         <item x="24"/>
-        <item x="32"/>
-        <item x="4"/>
-        <item x="42"/>
-        <item x="20"/>
-        <item x="27"/>
-        <item x="2"/>
-        <item x="1"/>
+        <item h="1" x="32"/>
+        <item h="1" x="4"/>
+        <item h="1" x="42"/>
+        <item h="1" x="20"/>
+        <item h="1" x="27"/>
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5204,162 +5204,21 @@
   <rowFields count="1">
     <field x="6"/>
   </rowFields>
-  <rowItems count="53">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
+  <rowItems count="6">
     <i>
       <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
     </i>
     <i>
       <x v="33"/>
     </i>
     <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
       <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
     </i>
     <i>
       <x v="39"/>
     </i>
     <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
       <x v="44"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="51"/>
     </i>
     <i t="grand">
       <x/>
@@ -5406,7 +5265,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -5702,15 +5561,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2D221A-1F93-4E8D-B1BD-A9CD4616FBDE}">
-  <dimension ref="A3:B56"/>
+  <dimension ref="A3:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="72.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -5778,434 +5637,58 @@
   <sheetData>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B3" t="s">
         <v>247</v>
-      </c>
-      <c r="B3" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>136</v>
+        <v>175</v>
       </c>
       <c r="B4" s="2">
-        <v>1148.3</v>
+        <v>215.15000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="B5" s="2">
-        <v>939.6</v>
+        <v>576.65</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="B6" s="2">
-        <v>162259</v>
+        <v>2325</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>105</v>
+        <v>51</v>
       </c>
       <c r="B7" s="2">
-        <v>20525</v>
+        <v>65.599999999999994</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B8" s="2">
-        <v>192521</v>
+        <v>1639.98</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>202</v>
+        <v>249</v>
       </c>
       <c r="B9" s="2">
-        <v>28296</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B10" s="2">
-        <v>10166</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" s="2">
-        <v>8407.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="B12" s="2">
-        <v>18480</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="B13" s="2">
-        <v>6347.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B14" s="2">
-        <v>12744</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="B15" s="2">
-        <v>5767.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B16" s="2">
-        <v>49140.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="2">
-        <v>330440</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B18" s="2">
-        <v>43833.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B19" s="2">
-        <v>529533</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" s="2">
-        <v>39537.75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="2">
-        <v>21652.14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="B22" s="2">
-        <v>25568</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B23" s="2">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="2">
-        <v>1062.8499999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="2">
-        <v>26329</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="2">
-        <v>101640</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B27" s="2">
-        <v>39068</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B28" s="2">
-        <v>45139</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B29" s="2">
-        <v>43392</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B30" s="2">
-        <v>47476</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B31" s="2">
-        <v>3999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="2">
-        <v>68.12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="2">
-        <v>958.25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B34" s="2">
-        <v>215.15000000000003</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B35" s="2">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B36" s="2">
-        <v>1563.6000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="2">
-        <v>576.65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="2">
-        <v>1131.6000000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B39" s="2">
-        <v>2209</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B40" s="2">
-        <v>2325</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B41" s="2">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42" s="2">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B43" s="2">
-        <v>65.599999999999994</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B44" s="2">
-        <v>3078.4500000000003</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B45" s="2">
-        <v>1562.45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="B46" s="2">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B47" s="2">
-        <v>3308.32</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B48" s="2">
-        <v>1639.9800000000002</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B49" s="2">
-        <v>3301.4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B50" s="2">
-        <v>1172788</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B51" s="2">
-        <v>1100075</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B52" s="2">
-        <v>116476</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B53" s="2">
-        <v>226722</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B54" s="2">
-        <v>396530</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55" s="2">
-        <v>574332</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B56" s="2">
-        <v>5428235.46</v>
+        <v>4822.38</v>
       </c>
     </row>
   </sheetData>
@@ -6221,7 +5704,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
